--- a/Income/ROK_inc.xlsx
+++ b/Income/ROK_inc.xlsx
@@ -1854,16 +1854,16 @@
         <v>0.4073</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.4071</v>
+        <v>0.4079</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.41</v>
+        <v>0.4107</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.4206</v>
+        <v>0.4213</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.4245</v>
+        <v>0.4252</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.4332</v>
@@ -2108,10 +2108,10 @@
         <v>0.242</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1796</v>
+        <v>0.1795</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1377</v>
+        <v>0.1376</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.1301</v>
@@ -2235,16 +2235,16 @@
         <v>0.2101</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1615</v>
+        <v>0.1616</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1183</v>
+        <v>0.1184</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1052</v>
+        <v>0.1053</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1374</v>
+        <v>0.1375</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1039</v>
@@ -3378,16 +3378,16 @@
         <v>0.2021</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.2009</v>
+        <v>0.2113</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.1642</v>
+        <v>0.1743</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.1817</v>
+        <v>0.1915</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.1946</v>
+        <v>0.2044</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.172</v>
@@ -3511,7 +3511,7 @@
         <v>0.1956</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1886</v>
+        <v>0.1885</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.1783</v>
